--- a/Resources/ExcelData/FindingHospital.xlsx
+++ b/Resources/ExcelData/FindingHospital.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7A5193C3-96B7-4B65-B830-07F83F3D0A8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A819740F-7FB5-4DED-BC2C-BD7C45D6E067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="9780" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="9810" windowHeight="16500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldsData" sheetId="4" r:id="rId1"/>
     <sheet name="Xpaths" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:K21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
